--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.032725635907219</v>
+        <v>8.049140666666666</v>
       </c>
       <c r="H2">
-        <v>8.032725635907219</v>
+        <v>24.147422</v>
       </c>
       <c r="I2">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="J2">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.081733852707</v>
+        <v>94.753826</v>
       </c>
       <c r="N2">
-        <v>89.081733852707</v>
+        <v>284.261478</v>
       </c>
       <c r="O2">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="P2">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="Q2">
-        <v>715.5691272097035</v>
+        <v>762.6868741788574</v>
       </c>
       <c r="R2">
-        <v>715.5691272097035</v>
+        <v>6864.181867609715</v>
       </c>
       <c r="S2">
-        <v>0.1434969170536616</v>
+        <v>0.1435685725129237</v>
       </c>
       <c r="T2">
-        <v>0.1434969170536616</v>
+        <v>0.1435685725129237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.032725635907219</v>
+        <v>8.049140666666666</v>
       </c>
       <c r="H3">
-        <v>8.032725635907219</v>
+        <v>24.147422</v>
       </c>
       <c r="I3">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="J3">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.07714027931549</v>
+        <v>1.164319333333333</v>
       </c>
       <c r="N3">
-        <v>1.07714027931549</v>
+        <v>3.492958</v>
       </c>
       <c r="O3">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="P3">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="Q3">
-        <v>8.652372335125801</v>
+        <v>9.371770094919555</v>
       </c>
       <c r="R3">
-        <v>8.652372335125801</v>
+        <v>84.34593085427599</v>
       </c>
       <c r="S3">
-        <v>0.001735106655778185</v>
+        <v>0.001764146860263623</v>
       </c>
       <c r="T3">
-        <v>0.001735106655778185</v>
+        <v>0.001764146860263623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.032725635907219</v>
+        <v>8.049140666666666</v>
       </c>
       <c r="H4">
-        <v>8.032725635907219</v>
+        <v>24.147422</v>
       </c>
       <c r="I4">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="J4">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.9196807560628</v>
+        <v>12.01913766666667</v>
       </c>
       <c r="N4">
-        <v>11.9196807560628</v>
+        <v>36.057413</v>
       </c>
       <c r="O4">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="P4">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="Q4">
-        <v>95.74752518105559</v>
+        <v>96.74372977103177</v>
       </c>
       <c r="R4">
-        <v>95.74752518105559</v>
+        <v>870.6935679392859</v>
       </c>
       <c r="S4">
-        <v>0.0192007650366012</v>
+        <v>0.01821108983651643</v>
       </c>
       <c r="T4">
-        <v>0.0192007650366012</v>
+        <v>0.01821108983651643</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.032725635907219</v>
+        <v>8.049140666666666</v>
       </c>
       <c r="H5">
-        <v>8.032725635907219</v>
+        <v>24.147422</v>
       </c>
       <c r="I5">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="J5">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.2123473633109</v>
+        <v>19.26494466666667</v>
       </c>
       <c r="N5">
-        <v>19.2123473633109</v>
+        <v>57.794834</v>
       </c>
       <c r="O5">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="P5">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="Q5">
-        <v>154.3275151912219</v>
+        <v>155.0662495575498</v>
       </c>
       <c r="R5">
-        <v>154.3275151912219</v>
+        <v>1395.596246017948</v>
       </c>
       <c r="S5">
-        <v>0.0309481247924249</v>
+        <v>0.02918975119098406</v>
       </c>
       <c r="T5">
-        <v>0.0309481247924249</v>
+        <v>0.02918975119098406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.032725635907219</v>
+        <v>8.049140666666666</v>
       </c>
       <c r="H6">
-        <v>8.032725635907219</v>
+        <v>24.147422</v>
       </c>
       <c r="I6">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="J6">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.52473045210216</v>
+        <v>1.968298333333333</v>
       </c>
       <c r="N6">
-        <v>1.52473045210216</v>
+        <v>5.904895</v>
       </c>
       <c r="O6">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="P6">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="Q6">
-        <v>12.24774139044943</v>
+        <v>15.84311015896555</v>
       </c>
       <c r="R6">
-        <v>12.24774139044943</v>
+        <v>142.58799143069</v>
       </c>
       <c r="S6">
-        <v>0.002456105306350039</v>
+        <v>0.002982315268158497</v>
       </c>
       <c r="T6">
-        <v>0.002456105306350039</v>
+        <v>0.002982315268158497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.4642532416764</v>
+        <v>10.54499533333333</v>
       </c>
       <c r="H7">
-        <v>10.4642532416764</v>
+        <v>31.634986</v>
       </c>
       <c r="I7">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="J7">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>89.081733852707</v>
+        <v>94.753826</v>
       </c>
       <c r="N7">
-        <v>89.081733852707</v>
+        <v>284.261478</v>
       </c>
       <c r="O7">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="P7">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="Q7">
-        <v>932.1738222423435</v>
+        <v>999.1786529854786</v>
       </c>
       <c r="R7">
-        <v>932.1738222423435</v>
+        <v>8992.607876869308</v>
       </c>
       <c r="S7">
-        <v>0.186933818919082</v>
+        <v>0.1880859075344079</v>
       </c>
       <c r="T7">
-        <v>0.186933818919082</v>
+        <v>0.1880859075344079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.4642532416764</v>
+        <v>10.54499533333333</v>
       </c>
       <c r="H8">
-        <v>10.4642532416764</v>
+        <v>31.634986</v>
       </c>
       <c r="I8">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="J8">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.07714027931549</v>
+        <v>1.164319333333333</v>
       </c>
       <c r="N8">
-        <v>1.07714027931549</v>
+        <v>3.492958</v>
       </c>
       <c r="O8">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="P8">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="Q8">
-        <v>11.27146865956734</v>
+        <v>12.27774193650978</v>
       </c>
       <c r="R8">
-        <v>11.27146865956734</v>
+        <v>110.499677428588</v>
       </c>
       <c r="S8">
-        <v>0.002260328096632489</v>
+        <v>0.002311168505954121</v>
       </c>
       <c r="T8">
-        <v>0.002260328096632489</v>
+        <v>0.002311168505954121</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.4642532416764</v>
+        <v>10.54499533333333</v>
       </c>
       <c r="H9">
-        <v>10.4642532416764</v>
+        <v>31.634986</v>
       </c>
       <c r="I9">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="J9">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.9196807560628</v>
+        <v>12.01913766666667</v>
       </c>
       <c r="N9">
-        <v>11.9196807560628</v>
+        <v>36.057413</v>
       </c>
       <c r="O9">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="P9">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="Q9">
-        <v>124.7305579913779</v>
+        <v>126.7417506056909</v>
       </c>
       <c r="R9">
-        <v>124.7305579913779</v>
+        <v>1140.675755451218</v>
       </c>
       <c r="S9">
-        <v>0.0250128881383397</v>
+        <v>0.02385793282707112</v>
       </c>
       <c r="T9">
-        <v>0.0250128881383397</v>
+        <v>0.02385793282707112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.4642532416764</v>
+        <v>10.54499533333333</v>
       </c>
       <c r="H10">
-        <v>10.4642532416764</v>
+        <v>31.634986</v>
       </c>
       <c r="I10">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="J10">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.2123473633109</v>
+        <v>19.26494466666667</v>
       </c>
       <c r="N10">
-        <v>19.2123473633109</v>
+        <v>57.794834</v>
       </c>
       <c r="O10">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="P10">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="Q10">
-        <v>201.0428681767391</v>
+        <v>203.1487516069249</v>
       </c>
       <c r="R10">
-        <v>201.0428681767391</v>
+        <v>1828.338764462324</v>
       </c>
       <c r="S10">
-        <v>0.04031620521623385</v>
+        <v>0.03824082629898397</v>
       </c>
       <c r="T10">
-        <v>0.04031620521623385</v>
+        <v>0.03824082629898397</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.4642532416764</v>
+        <v>10.54499533333333</v>
       </c>
       <c r="H11">
-        <v>10.4642532416764</v>
+        <v>31.634986</v>
       </c>
       <c r="I11">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="J11">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.52473045210216</v>
+        <v>1.968298333333333</v>
       </c>
       <c r="N11">
-        <v>1.52473045210216</v>
+        <v>5.904895</v>
       </c>
       <c r="O11">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="P11">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="Q11">
-        <v>15.95516557609275</v>
+        <v>20.75569673960777</v>
       </c>
       <c r="R11">
-        <v>15.95516557609275</v>
+        <v>186.80127065647</v>
       </c>
       <c r="S11">
-        <v>0.003199574973528806</v>
+        <v>0.003907063112400996</v>
       </c>
       <c r="T11">
-        <v>0.003199574973528806</v>
+        <v>0.003907063112400996</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.0749596270082</v>
+        <v>10.09243133333333</v>
       </c>
       <c r="H12">
-        <v>10.0749596270082</v>
+        <v>30.277294</v>
       </c>
       <c r="I12">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="J12">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>89.081733852707</v>
+        <v>94.753826</v>
       </c>
       <c r="N12">
-        <v>89.081733852707</v>
+        <v>284.261478</v>
       </c>
       <c r="O12">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="P12">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="Q12">
-        <v>897.4948720699127</v>
+        <v>956.2964824756148</v>
       </c>
       <c r="R12">
-        <v>897.4948720699127</v>
+        <v>8606.668342280533</v>
       </c>
       <c r="S12">
-        <v>0.1799794629425936</v>
+        <v>0.1800137455308526</v>
       </c>
       <c r="T12">
-        <v>0.1799794629425936</v>
+        <v>0.1800137455308525</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.0749596270082</v>
+        <v>10.09243133333333</v>
       </c>
       <c r="H13">
-        <v>10.0749596270082</v>
+        <v>30.277294</v>
       </c>
       <c r="I13">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="J13">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.07714027931549</v>
+        <v>1.164319333333333</v>
       </c>
       <c r="N13">
-        <v>1.07714027931549</v>
+        <v>3.492958</v>
       </c>
       <c r="O13">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="P13">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="Q13">
-        <v>10.8521448267279</v>
+        <v>11.75081292173911</v>
       </c>
       <c r="R13">
-        <v>10.8521448267279</v>
+        <v>105.757316295652</v>
       </c>
       <c r="S13">
-        <v>0.002176238838206516</v>
+        <v>0.002211979115094714</v>
       </c>
       <c r="T13">
-        <v>0.002176238838206516</v>
+        <v>0.002211979115094714</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.0749596270082</v>
+        <v>10.09243133333333</v>
       </c>
       <c r="H14">
-        <v>10.0749596270082</v>
+        <v>30.277294</v>
       </c>
       <c r="I14">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="J14">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.9196807560628</v>
+        <v>12.01913766666667</v>
       </c>
       <c r="N14">
-        <v>11.9196807560628</v>
+        <v>36.057413</v>
       </c>
       <c r="O14">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="P14">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="Q14">
-        <v>120.0903023841593</v>
+        <v>121.3023215867135</v>
       </c>
       <c r="R14">
-        <v>120.0903023841593</v>
+        <v>1091.720894280422</v>
       </c>
       <c r="S14">
-        <v>0.02408235278031872</v>
+        <v>0.02283401188916232</v>
       </c>
       <c r="T14">
-        <v>0.02408235278031872</v>
+        <v>0.02283401188916232</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.0749596270082</v>
+        <v>10.09243133333333</v>
       </c>
       <c r="H15">
-        <v>10.0749596270082</v>
+        <v>30.277294</v>
       </c>
       <c r="I15">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="J15">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.2123473633109</v>
+        <v>19.26494466666667</v>
       </c>
       <c r="N15">
-        <v>19.2123473633109</v>
+        <v>57.794834</v>
       </c>
       <c r="O15">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="P15">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="Q15">
-        <v>193.5636240254148</v>
+        <v>194.4301311887996</v>
       </c>
       <c r="R15">
-        <v>193.5636240254148</v>
+        <v>1749.871180699196</v>
       </c>
       <c r="S15">
-        <v>0.03881635225053687</v>
+        <v>0.03659962867242204</v>
       </c>
       <c r="T15">
-        <v>0.03881635225053687</v>
+        <v>0.03659962867242204</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.0749596270082</v>
+        <v>10.09243133333333</v>
       </c>
       <c r="H16">
-        <v>10.0749596270082</v>
+        <v>30.277294</v>
       </c>
       <c r="I16">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="J16">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.52473045210216</v>
+        <v>1.968298333333333</v>
       </c>
       <c r="N16">
-        <v>1.52473045210216</v>
+        <v>5.904895</v>
       </c>
       <c r="O16">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="P16">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="Q16">
-        <v>15.36159774699922</v>
+        <v>19.86491577268111</v>
       </c>
       <c r="R16">
-        <v>15.36159774699922</v>
+        <v>178.78424195413</v>
       </c>
       <c r="S16">
-        <v>0.003080543631484623</v>
+        <v>0.003739382041475221</v>
       </c>
       <c r="T16">
-        <v>0.003080543631484623</v>
+        <v>0.00373938204147522</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.93650425482743</v>
+        <v>8.966928333333334</v>
       </c>
       <c r="H17">
-        <v>8.93650425482743</v>
+        <v>26.900785</v>
       </c>
       <c r="I17">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="J17">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>89.081733852707</v>
+        <v>94.753826</v>
       </c>
       <c r="N17">
-        <v>89.081733852707</v>
+        <v>284.261478</v>
       </c>
       <c r="O17">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="P17">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="Q17">
-        <v>796.0792936021209</v>
+        <v>849.6507670511368</v>
       </c>
       <c r="R17">
-        <v>796.0792936021209</v>
+        <v>7646.85690346023</v>
       </c>
       <c r="S17">
-        <v>0.1596420527638046</v>
+        <v>0.159938700782513</v>
       </c>
       <c r="T17">
-        <v>0.1596420527638046</v>
+        <v>0.159938700782513</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.93650425482743</v>
+        <v>8.966928333333334</v>
       </c>
       <c r="H18">
-        <v>8.93650425482743</v>
+        <v>26.900785</v>
       </c>
       <c r="I18">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="J18">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.07714027931549</v>
+        <v>1.164319333333333</v>
       </c>
       <c r="N18">
-        <v>1.07714027931549</v>
+        <v>3.492958</v>
       </c>
       <c r="O18">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="P18">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="Q18">
-        <v>9.625868689148882</v>
+        <v>10.44036801911444</v>
       </c>
       <c r="R18">
-        <v>9.625868689148882</v>
+        <v>93.96331217202999</v>
       </c>
       <c r="S18">
-        <v>0.001930327103745267</v>
+        <v>0.001965300287392036</v>
       </c>
       <c r="T18">
-        <v>0.001930327103745267</v>
+        <v>0.001965300287392036</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.93650425482743</v>
+        <v>8.966928333333334</v>
       </c>
       <c r="H19">
-        <v>8.93650425482743</v>
+        <v>26.900785</v>
       </c>
       <c r="I19">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="J19">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.9196807560628</v>
+        <v>12.01913766666667</v>
       </c>
       <c r="N19">
-        <v>11.9196807560628</v>
+        <v>36.057413</v>
       </c>
       <c r="O19">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="P19">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="Q19">
-        <v>106.5202777927398</v>
+        <v>107.7747460854672</v>
       </c>
       <c r="R19">
-        <v>106.5202777927398</v>
+        <v>969.9727147692049</v>
       </c>
       <c r="S19">
-        <v>0.02136108292788082</v>
+        <v>0.02028757406516578</v>
       </c>
       <c r="T19">
-        <v>0.02136108292788082</v>
+        <v>0.02028757406516578</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.93650425482743</v>
+        <v>8.966928333333334</v>
       </c>
       <c r="H20">
-        <v>8.93650425482743</v>
+        <v>26.900785</v>
       </c>
       <c r="I20">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="J20">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.2123473633109</v>
+        <v>19.26494466666667</v>
       </c>
       <c r="N20">
-        <v>19.2123473633109</v>
+        <v>57.794834</v>
       </c>
       <c r="O20">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="P20">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="Q20">
-        <v>171.6912239574504</v>
+        <v>172.7473781716322</v>
       </c>
       <c r="R20">
-        <v>171.6912239574504</v>
+        <v>1554.72640354469</v>
       </c>
       <c r="S20">
-        <v>0.03443016249056784</v>
+        <v>0.03251805600581943</v>
       </c>
       <c r="T20">
-        <v>0.03443016249056784</v>
+        <v>0.03251805600581943</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.93650425482743</v>
+        <v>8.966928333333334</v>
       </c>
       <c r="H21">
-        <v>8.93650425482743</v>
+        <v>26.900785</v>
       </c>
       <c r="I21">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="J21">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.52473045210216</v>
+        <v>1.968298333333333</v>
       </c>
       <c r="N21">
-        <v>1.52473045210216</v>
+        <v>5.904895</v>
       </c>
       <c r="O21">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="P21">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="Q21">
-        <v>13.6257601726759</v>
+        <v>17.64959009361944</v>
       </c>
       <c r="R21">
-        <v>13.6257601726759</v>
+        <v>158.846310842575</v>
       </c>
       <c r="S21">
-        <v>0.002732446807642326</v>
+        <v>0.003322367987396298</v>
       </c>
       <c r="T21">
-        <v>0.002732446807642326</v>
+        <v>0.003322367987396297</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.09430026011704</v>
+        <v>3.473166333333333</v>
       </c>
       <c r="H22">
-        <v>3.09430026011704</v>
+        <v>10.419499</v>
       </c>
       <c r="I22">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504228</v>
       </c>
       <c r="J22">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504227</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>89.081733852707</v>
+        <v>94.753826</v>
       </c>
       <c r="N22">
-        <v>89.081733852707</v>
+        <v>284.261478</v>
       </c>
       <c r="O22">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="P22">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="Q22">
-        <v>275.6456322321082</v>
+        <v>329.0957984177247</v>
       </c>
       <c r="R22">
-        <v>275.6456322321082</v>
+        <v>2961.862185759522</v>
       </c>
       <c r="S22">
-        <v>0.05527669783470581</v>
+        <v>0.06194916367179223</v>
       </c>
       <c r="T22">
-        <v>0.05527669783470581</v>
+        <v>0.06194916367179221</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.09430026011704</v>
+        <v>3.473166333333333</v>
       </c>
       <c r="H23">
-        <v>3.09430026011704</v>
+        <v>10.419499</v>
       </c>
       <c r="I23">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504228</v>
       </c>
       <c r="J23">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504227</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.07714027931549</v>
+        <v>1.164319333333333</v>
       </c>
       <c r="N23">
-        <v>1.07714027931549</v>
+        <v>3.492958</v>
       </c>
       <c r="O23">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="P23">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="Q23">
-        <v>3.332995446468462</v>
+        <v>4.043874709782444</v>
       </c>
       <c r="R23">
-        <v>3.332995446468462</v>
+        <v>36.394872388042</v>
       </c>
       <c r="S23">
-        <v>0.0006683834628068776</v>
+        <v>0.0007612210713992559</v>
       </c>
       <c r="T23">
-        <v>0.0006683834628068776</v>
+        <v>0.0007612210713992558</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.09430026011704</v>
+        <v>3.473166333333333</v>
       </c>
       <c r="H24">
-        <v>3.09430026011704</v>
+        <v>10.419499</v>
       </c>
       <c r="I24">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504228</v>
       </c>
       <c r="J24">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504227</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.9196807560628</v>
+        <v>12.01913766666667</v>
       </c>
       <c r="N24">
-        <v>11.9196807560628</v>
+        <v>36.057413</v>
       </c>
       <c r="O24">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="P24">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="Q24">
-        <v>36.88307126399719</v>
+        <v>41.74446429956522</v>
       </c>
       <c r="R24">
-        <v>36.88307126399719</v>
+        <v>375.700178696087</v>
       </c>
       <c r="S24">
-        <v>0.007396360207003526</v>
+        <v>0.007857999596830381</v>
       </c>
       <c r="T24">
-        <v>0.007396360207003526</v>
+        <v>0.007857999596830381</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.09430026011704</v>
+        <v>3.473166333333333</v>
       </c>
       <c r="H25">
-        <v>3.09430026011704</v>
+        <v>10.419499</v>
       </c>
       <c r="I25">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504228</v>
       </c>
       <c r="J25">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504227</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.2123473633109</v>
+        <v>19.26494466666667</v>
       </c>
       <c r="N25">
-        <v>19.2123473633109</v>
+        <v>57.794834</v>
       </c>
       <c r="O25">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="P25">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="Q25">
-        <v>59.44877144375184</v>
+        <v>66.91035722979623</v>
       </c>
       <c r="R25">
-        <v>59.44877144375184</v>
+        <v>602.1932150681661</v>
       </c>
       <c r="S25">
-        <v>0.01192158115886147</v>
+        <v>0.01259524032605664</v>
       </c>
       <c r="T25">
-        <v>0.01192158115886147</v>
+        <v>0.01259524032605664</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.09430026011704</v>
+        <v>3.473166333333333</v>
       </c>
       <c r="H26">
-        <v>3.09430026011704</v>
+        <v>10.419499</v>
       </c>
       <c r="I26">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504228</v>
       </c>
       <c r="J26">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504227</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.52473045210216</v>
+        <v>1.968298333333333</v>
       </c>
       <c r="N26">
-        <v>1.52473045210216</v>
+        <v>5.904895</v>
       </c>
       <c r="O26">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="P26">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="Q26">
-        <v>4.717973834548085</v>
+        <v>6.836227505289444</v>
       </c>
       <c r="R26">
-        <v>4.717973834548085</v>
+        <v>61.526047547605</v>
       </c>
       <c r="S26">
-        <v>0.0009461206112083811</v>
+        <v>0.001286855008963781</v>
       </c>
       <c r="T26">
-        <v>0.0009461206112083811</v>
+        <v>0.00128685500896378</v>
       </c>
     </row>
   </sheetData>
